--- a/tests/databooks/progbook_sir.xlsx
+++ b/tests/databooks/progbook_sir.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2890ED61-17ED-8645-ABD7-E9AD19F73E3D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="760" windowWidth="24940" windowHeight="13400" activeTab="2"/>
+    <workbookView xWindow="260" yWindow="760" windowWidth="24940" windowHeight="13400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Populations &amp; programs" sheetId="2" r:id="rId1"/>
-    <sheet name="Program spend data" sheetId="3" r:id="rId2"/>
+    <sheet name="Program targeting" sheetId="2" r:id="rId1"/>
+    <sheet name="Spending data" sheetId="3" r:id="rId2"/>
     <sheet name="Program effects" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="42">
-  <si>
-    <t>Populations &amp; programs</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="39">
   <si>
     <t>Short name</t>
   </si>
@@ -103,9 +101,6 @@
     <t>Value with no interventions</t>
   </si>
   <si>
-    <t>Best attainable value</t>
-  </si>
-  <si>
     <t>Value for a person covered by this program alone:</t>
   </si>
   <si>
@@ -122,9 +117,6 @@
   </si>
   <si>
     <t>susdeath</t>
-  </si>
-  <si>
-    <t>Base spend</t>
   </si>
   <si>
     <t>Unit cost: best</t>
@@ -160,11 +152,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -296,7 +288,7 @@
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -326,13 +318,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -365,7 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="12">
@@ -380,13 +372,16 @@
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="11"/>
+    <cellStyle name="Normal 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -676,12 +671,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -695,37 +688,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="1"/>
       <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -733,10 +724,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
@@ -753,10 +744,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -775,10 +766,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -797,10 +788,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -817,10 +808,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -834,22 +825,22 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -858,11 +849,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -875,7 +866,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -895,16 +886,16 @@
         <v>2018</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$3</f>
+        <f>'Program targeting'!$C$3</f>
         <v>Risk avoidance</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="7">
         <v>500000</v>
@@ -914,593 +905,497 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$3</f>
+        <f>'Program targeting'!$C$3</f>
         <v>Risk avoidance</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="7">
-        <v>100000</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$3</f>
+        <f>'Program targeting'!$C$3</f>
         <v>Risk avoidance</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="D5" s="8">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="9">
+        <v>7</v>
+      </c>
+      <c r="H5" s="4"/>
       <c r="I5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$3</f>
+        <f>'Program targeting'!$C$3</f>
         <v>Risk avoidance</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$3</f>
+        <f>'Program targeting'!$C$3</f>
         <v>Risk avoidance</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" s="8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="9">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$3</f>
-        <v>Risk avoidance</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="8">
-        <v>7</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="9">
-        <v>10</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="4"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="str">
+        <f>'Program targeting'!$C$4</f>
+        <v>Harm reduction 1</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="7">
+        <v>200000</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$4</f>
+        <f>'Program targeting'!$C$4</f>
         <v>Harm reduction 1</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="7">
-        <v>200000</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="F10" s="7">
+        <v>500000</v>
+      </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$4</f>
+        <f>'Program targeting'!$C$4</f>
         <v>Harm reduction 1</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D11" s="8">
+        <v>20</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="9"/>
       <c r="H11" s="4"/>
       <c r="I11" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$4</f>
+        <f>'Program targeting'!$C$4</f>
         <v>Harm reduction 1</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="7">
-        <v>500000</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="D12" s="8">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="4"/>
       <c r="I12" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$4</f>
+        <f>'Program targeting'!$C$4</f>
         <v>Harm reduction 1</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="8">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="9"/>
       <c r="H13" s="4"/>
       <c r="I13" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$4</f>
-        <v>Harm reduction 1</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="8">
-        <v>10</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$4</f>
-        <v>Harm reduction 1</v>
+        <f>'Program targeting'!$C$5</f>
+        <v>Harm reduction 2</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="8">
-        <v>25</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D15" s="7">
+        <v>300000</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
       <c r="I15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="str">
+        <f>'Program targeting'!$C$5</f>
+        <v>Harm reduction 2</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="4">
+        <v>500000</v>
+      </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$5</f>
+        <f>'Program targeting'!$C$5</f>
         <v>Harm reduction 2</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="7">
-        <v>300000</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="4"/>
       <c r="I17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$5</f>
+        <f>'Program targeting'!$C$5</f>
         <v>Harm reduction 2</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="8">
-        <v>50000</v>
+        <v>20</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="9"/>
       <c r="H18" s="4"/>
       <c r="I18" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$5</f>
+        <f>'Program targeting'!$C$5</f>
         <v>Harm reduction 2</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="D19" s="8">
+        <v>30</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="4"/>
       <c r="I19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" s="4">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$5</f>
-        <v>Harm reduction 2</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="J19" s="4"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$5</f>
-        <v>Harm reduction 2</v>
+        <f>'Program targeting'!$C$6</f>
+        <v>Treatment 1</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="8">
-        <v>20</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3500000</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
       <c r="I21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="J21" s="5"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$5</f>
-        <v>Harm reduction 2</v>
+        <f>'Program targeting'!$C$6</f>
+        <v>Treatment 1</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="8">
-        <v>30</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="D22" s="7">
+        <v>10000000</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
       <c r="I22" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="str">
+        <f>'Program targeting'!$C$6</f>
+        <v>Treatment 1</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="8">
+        <v>120</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="4"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$6</f>
+        <f>'Program targeting'!$C$6</f>
         <v>Treatment 1</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="7">
-        <v>3500000</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="4"/>
       <c r="I24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="J24" s="4"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$6</f>
+        <f>'Program targeting'!$C$6</f>
         <v>Treatment 1</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="7">
-        <v>2000000</v>
-      </c>
+      <c r="D25" s="8"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="9"/>
       <c r="H25" s="4"/>
       <c r="I25" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$6</f>
-        <v>Treatment 1</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="7">
-        <v>10000000</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" s="4"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$6</f>
-        <v>Treatment 1</v>
+        <f>'Program targeting'!$C$7</f>
+        <v>Treatment 2</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="8">
-        <v>120</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1500000</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="7">
+        <v>2500000</v>
+      </c>
+      <c r="H27" s="5"/>
       <c r="I27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="J27" s="5"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$6</f>
-        <v>Treatment 1</v>
+        <f>'Program targeting'!$C$7</f>
+        <v>Treatment 2</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="D28" s="7">
+        <v>5000000</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7">
+        <v>8000000</v>
+      </c>
+      <c r="H28" s="5"/>
       <c r="I28" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$6</f>
-        <v>Treatment 1</v>
+        <f>'Program targeting'!$C$7</f>
+        <v>Treatment 2</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D29" s="8">
+        <v>100</v>
+      </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="9"/>
+      <c r="G29" s="8">
+        <v>80</v>
+      </c>
       <c r="H29" s="4"/>
       <c r="I29" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="3" t="str">
+        <f>'Program targeting'!$C$7</f>
+        <v>Treatment 2</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="8">
+        <v>80</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="8">
+        <v>60</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" s="4"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$7</f>
+        <f>'Program targeting'!$C$7</f>
         <v>Treatment 2</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1500000</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="7">
-        <v>2500000</v>
-      </c>
-      <c r="H31" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="D31" s="8">
+        <v>120</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="8">
+        <v>100</v>
+      </c>
+      <c r="H31" s="4"/>
       <c r="I31" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$7</f>
-        <v>Treatment 2</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$7</f>
-        <v>Treatment 2</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="7">
-        <v>5000000</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7">
-        <v>8000000</v>
-      </c>
-      <c r="H33" s="5"/>
-      <c r="I33" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$7</f>
-        <v>Treatment 2</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="8">
-        <v>100</v>
-      </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="8">
-        <v>80</v>
-      </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$7</f>
-        <v>Treatment 2</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="8">
-        <v>80</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="8">
-        <v>60</v>
-      </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$7</f>
-        <v>Treatment 2</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" s="8">
-        <v>120</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="8">
-        <v>100</v>
-      </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J36" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="J31" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1509,293 +1404,266 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.83203125" customWidth="1"/>
-    <col min="6" max="6" width="2.33203125" customWidth="1"/>
-    <col min="7" max="11" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="2.33203125" customWidth="1"/>
+    <col min="6" max="10" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C1" s="11"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="17"/>
-    </row>
-    <row r="2" spans="2:20" ht="40" x14ac:dyDescent="0.2">
+      <c r="E1" s="12"/>
+      <c r="F1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="17"/>
+    </row>
+    <row r="2" spans="2:19" ht="40" x14ac:dyDescent="0.2">
       <c r="C2" s="3"/>
       <c r="D2" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="str">
+        <f>'Program targeting'!$C$3</f>
+        <v>Risk avoidance</v>
+      </c>
+      <c r="G2" s="18" t="str">
+        <f>'Program targeting'!$C$4</f>
+        <v>Harm reduction 1</v>
+      </c>
+      <c r="H2" s="18" t="str">
+        <f>'Program targeting'!$C$5</f>
+        <v>Harm reduction 2</v>
+      </c>
+      <c r="I2" s="18" t="str">
+        <f>'Program targeting'!$C$6</f>
+        <v>Treatment 1</v>
+      </c>
+      <c r="J2" s="18" t="str">
+        <f>'Program targeting'!$C$7</f>
+        <v>Treatment 2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18" t="str">
-        <f>'Populations &amp; programs'!$C$3</f>
-        <v>Risk avoidance</v>
-      </c>
-      <c r="H2" s="18" t="str">
-        <f>'Populations &amp; programs'!$C$4</f>
-        <v>Harm reduction 1</v>
-      </c>
-      <c r="I2" s="18" t="str">
-        <f>'Populations &amp; programs'!$C$5</f>
-        <v>Harm reduction 2</v>
-      </c>
-      <c r="J2" s="18" t="str">
-        <f>'Populations &amp; programs'!$C$6</f>
-        <v>Treatment 1</v>
-      </c>
-      <c r="K2" s="18" t="str">
-        <f>'Populations &amp; programs'!$C$7</f>
-        <v>Treatment 2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="C3" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D3" s="19">
         <v>0.01</v>
       </c>
-      <c r="E3" s="19">
-        <v>1E-3</v>
-      </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="H3" s="19">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="I3" s="19">
         <v>3.0000000000000001E-3</v>
       </c>
+      <c r="I3" s="19"/>
       <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D4" s="19">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E4" s="19">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19">
+        <v>3.5000000000000001E-3</v>
+      </c>
       <c r="H4" s="19">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="I4" s="19">
         <v>2.5000000000000001E-3</v>
       </c>
+      <c r="I4" s="19"/>
       <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D5" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="E5" s="19">
-        <v>1.5E-3</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19">
+        <v>4.4999999999999997E-3</v>
+      </c>
       <c r="H5" s="19">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="I5" s="19">
         <v>3.5000000000000001E-3</v>
       </c>
+      <c r="I5" s="19"/>
       <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-    </row>
-    <row r="6" spans="2:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="2:19" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="C6"/>
       <c r="D6" s="20"/>
-      <c r="F6"/>
-      <c r="G6" s="20"/>
-      <c r="I6"/>
-      <c r="J6" s="20"/>
+      <c r="E6"/>
+      <c r="F6" s="20"/>
+      <c r="H6"/>
+      <c r="I6" s="20"/>
+      <c r="K6" s="15"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
       <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D7" s="19"/>
-      <c r="E7" s="19">
-        <v>10</v>
-      </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19">
+      <c r="E7" s="18"/>
+      <c r="F7" s="19">
         <v>15</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19">
+      <c r="G7" s="19"/>
+      <c r="H7" s="19">
         <v>20</v>
       </c>
+      <c r="I7" s="19"/>
       <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D8" s="19">
         <v>90</v>
       </c>
-      <c r="E8" s="19">
-        <v>5</v>
-      </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19">
+      <c r="E8" s="18"/>
+      <c r="F8" s="19">
         <v>10</v>
       </c>
+      <c r="G8" s="19"/>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D9" s="19">
         <v>120</v>
       </c>
-      <c r="E9" s="19">
-        <v>15</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19">
+      <c r="E9" s="18"/>
+      <c r="F9" s="19">
         <v>20</v>
       </c>
+      <c r="G9" s="19"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-    </row>
-    <row r="10" spans="2:20" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="2:19" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="12"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
+      <c r="I10" s="20"/>
       <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
+      <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D11" s="19">
         <v>8</v>
       </c>
-      <c r="E11" s="19">
-        <v>3</v>
-      </c>
-      <c r="F11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
+      <c r="I11" s="19">
+        <v>4</v>
+      </c>
       <c r="J11" s="19">
         <v>4</v>
       </c>
-      <c r="K11" s="19">
-        <v>4</v>
-      </c>
-      <c r="N11" s="22"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="M11" s="22"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D12" s="19">
         <v>6</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D13" s="19">
         <v>10</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-    </row>
-    <row r="14" spans="2:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="2:19" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="C14"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -1804,76 +1672,70 @@
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
+      <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
+      <c r="N14"/>
       <c r="O14"/>
       <c r="P14"/>
       <c r="Q14"/>
-      <c r="R14"/>
-      <c r="T14" s="15">
-        <f>SUM(R11:R14)</f>
+      <c r="S14" s="15">
+        <f>SUM(Q11:Q14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D15" s="19">
         <v>0.02</v>
       </c>
-      <c r="E15" s="19">
-        <v>0.01</v>
-      </c>
-      <c r="F15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
+      <c r="I15" s="19">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="J15" s="19">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K15" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-    </row>
-    <row r="18" spans="2:18" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="2:17" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="C18"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
@@ -1882,62 +1744,58 @@
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
+      <c r="K18" s="15"/>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
       <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/databooks/progbook_sir.xlsx
+++ b/tests/databooks/progbook_sir.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\databooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2890ED61-17ED-8645-ABD7-E9AD19F73E3D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1461CF-63B2-4EF6-B89E-A1110E4CABBF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="760" windowWidth="24940" windowHeight="13400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="255" yWindow="765" windowWidth="24945" windowHeight="13395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="2" r:id="rId1"/>
     <sheet name="Spending data" sheetId="3" r:id="rId2"/>
     <sheet name="Program effects" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="36">
   <si>
     <t>Short name</t>
   </si>
@@ -138,15 +138,6 @@
   </si>
   <si>
     <t xml:space="preserve">• the "Harm reduction 2" intervention encourages both handwashing and staying at home when sick  </t>
-  </si>
-  <si>
-    <t>Adults: best</t>
-  </si>
-  <si>
-    <t>Adults: low</t>
-  </si>
-  <si>
-    <t>Adults: high</t>
   </si>
 </sst>
 </file>
@@ -674,20 +665,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="50.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.33203125" customWidth="1"/>
-    <col min="8" max="11" width="9.83203125" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.28515625" customWidth="1"/>
+    <col min="8" max="11" width="9.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="F1" s="1" t="s">
         <v>16</v>
@@ -696,7 +687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -719,7 +710,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -739,7 +730,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -761,7 +752,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -783,7 +774,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -803,7 +794,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -823,22 +814,22 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J14" t="s">
         <v>35</v>
       </c>
@@ -856,20 +847,22 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D2" s="3">
         <v>2014</v>
       </c>
@@ -889,7 +882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="str">
         <f>'Program targeting'!$C$3</f>
         <v>Risk avoidance</v>
@@ -909,7 +902,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="str">
         <f>'Program targeting'!$C$3</f>
         <v>Risk avoidance</v>
@@ -927,7 +920,7 @@
       </c>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="str">
         <f>'Program targeting'!$C$3</f>
         <v>Risk avoidance</v>
@@ -949,7 +942,7 @@
       </c>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="str">
         <f>'Program targeting'!$C$3</f>
         <v>Risk avoidance</v>
@@ -971,7 +964,7 @@
       </c>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="str">
         <f>'Program targeting'!$C$3</f>
         <v>Risk avoidance</v>
@@ -993,7 +986,7 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="str">
         <f>'Program targeting'!$C$4</f>
         <v>Harm reduction 1</v>
@@ -1013,7 +1006,7 @@
       </c>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="str">
         <f>'Program targeting'!$C$4</f>
         <v>Harm reduction 1</v>
@@ -1033,7 +1026,7 @@
       </c>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="str">
         <f>'Program targeting'!$C$4</f>
         <v>Harm reduction 1</v>
@@ -1053,7 +1046,7 @@
       </c>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="str">
         <f>'Program targeting'!$C$4</f>
         <v>Harm reduction 1</v>
@@ -1073,7 +1066,7 @@
       </c>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="str">
         <f>'Program targeting'!$C$4</f>
         <v>Harm reduction 1</v>
@@ -1093,7 +1086,7 @@
       </c>
       <c r="J13" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="str">
         <f>'Program targeting'!$C$5</f>
         <v>Harm reduction 2</v>
@@ -1113,7 +1106,7 @@
       </c>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="str">
         <f>'Program targeting'!$C$5</f>
         <v>Harm reduction 2</v>
@@ -1133,7 +1126,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="str">
         <f>'Program targeting'!$C$5</f>
         <v>Harm reduction 2</v>
@@ -1151,7 +1144,7 @@
       </c>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="str">
         <f>'Program targeting'!$C$5</f>
         <v>Harm reduction 2</v>
@@ -1171,7 +1164,7 @@
       </c>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="str">
         <f>'Program targeting'!$C$5</f>
         <v>Harm reduction 2</v>
@@ -1191,7 +1184,7 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="str">
         <f>'Program targeting'!$C$6</f>
         <v>Treatment 1</v>
@@ -1211,7 +1204,7 @@
       </c>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="str">
         <f>'Program targeting'!$C$6</f>
         <v>Treatment 1</v>
@@ -1231,7 +1224,7 @@
       </c>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="str">
         <f>'Program targeting'!$C$6</f>
         <v>Treatment 1</v>
@@ -1251,7 +1244,7 @@
       </c>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="str">
         <f>'Program targeting'!$C$6</f>
         <v>Treatment 1</v>
@@ -1269,7 +1262,7 @@
       </c>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="str">
         <f>'Program targeting'!$C$6</f>
         <v>Treatment 1</v>
@@ -1287,7 +1280,7 @@
       </c>
       <c r="J25" s="4"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="str">
         <f>'Program targeting'!$C$7</f>
         <v>Treatment 2</v>
@@ -1309,7 +1302,7 @@
       </c>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="str">
         <f>'Program targeting'!$C$7</f>
         <v>Treatment 2</v>
@@ -1331,7 +1324,7 @@
       </c>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="str">
         <f>'Program targeting'!$C$7</f>
         <v>Treatment 2</v>
@@ -1353,7 +1346,7 @@
       </c>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="str">
         <f>'Program targeting'!$C$7</f>
         <v>Treatment 2</v>
@@ -1375,7 +1368,7 @@
       </c>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="str">
         <f>'Program targeting'!$C$7</f>
         <v>Treatment 2</v>
@@ -1405,22 +1398,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:S21"/>
+  <dimension ref="B1:S11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" customWidth="1"/>
-    <col min="5" max="5" width="2.33203125" customWidth="1"/>
-    <col min="6" max="10" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" customWidth="1"/>
+    <col min="6" max="10" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C1" s="11"/>
       <c r="E1" s="12"/>
       <c r="F1" s="23" t="s">
@@ -1428,7 +1421,7 @@
       </c>
       <c r="K1" s="17"/>
     </row>
-    <row r="2" spans="2:19" ht="40" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:19" ht="51.75" x14ac:dyDescent="0.25">
       <c r="C2" s="3"/>
       <c r="D2" s="18" t="s">
         <v>22</v>
@@ -1455,12 +1448,12 @@
         <v>Treatment 2</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D3" s="19">
         <v>0.01</v>
@@ -1476,55 +1469,51 @@
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="19">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="H4" s="19">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:19" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C4"/>
+      <c r="D4" s="20"/>
+      <c r="E4"/>
+      <c r="F4" s="20"/>
+      <c r="H4"/>
+      <c r="I4" s="20"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D5" s="19">
-        <v>1.0999999999999999E-2</v>
+        <v>110</v>
       </c>
       <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19">
-        <v>4.4999999999999997E-3</v>
-      </c>
+      <c r="F5" s="19">
+        <v>15</v>
+      </c>
+      <c r="G5" s="19"/>
       <c r="H5" s="19">
-        <v>3.5000000000000001E-3</v>
+        <v>20</v>
       </c>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
     </row>
-    <row r="6" spans="2:19" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="C6"/>
-      <c r="D6" s="20"/>
-      <c r="E6"/>
-      <c r="F6" s="20"/>
-      <c r="H6"/>
+    <row r="6" spans="2:19" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="12"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
       <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
@@ -1533,70 +1522,77 @@
       <c r="P6" s="15"/>
       <c r="Q6" s="15"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="19"/>
+        <v>6</v>
+      </c>
+      <c r="D7" s="19">
+        <v>8</v>
+      </c>
       <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>15</v>
-      </c>
+      <c r="F7" s="19"/>
       <c r="G7" s="19"/>
-      <c r="H7" s="19">
-        <v>20</v>
-      </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="19">
-        <v>90</v>
-      </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19">
-        <v>10</v>
-      </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="H7" s="19"/>
+      <c r="I7" s="19">
+        <v>4</v>
+      </c>
+      <c r="J7" s="19">
+        <v>4</v>
+      </c>
+      <c r="M7" s="22"/>
+    </row>
+    <row r="8" spans="2:19" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="S8" s="15">
+        <f>SUM(Q7:Q8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D9" s="19">
-        <v>120</v>
+        <v>0.02</v>
       </c>
       <c r="E9" s="18"/>
-      <c r="F9" s="19">
-        <v>20</v>
-      </c>
+      <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-    </row>
-    <row r="10" spans="2:19" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="12"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
+      <c r="I9" s="19">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J9" s="19">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
@@ -1607,195 +1603,20 @@
       <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="19">
-        <v>8</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19">
-        <v>4</v>
-      </c>
-      <c r="J11" s="19">
-        <v>4</v>
-      </c>
-      <c r="M11" s="22"/>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="19">
         <v>6</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="19">
-        <v>10</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-    </row>
-    <row r="14" spans="2:19" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="C14"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="S14" s="15">
-        <f>SUM(Q11:Q14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="19">
-        <v>0.02</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="J15" s="19">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-    </row>
-    <row r="18" spans="2:17" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="C18"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/databooks/progbook_sir.xlsx
+++ b/tests/databooks/progbook_sir.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\databooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1461CF-63B2-4EF6-B89E-A1110E4CABBF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26309013-4B31-4E04-AF06-CC7E63B0708F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="255" yWindow="765" windowWidth="24945" windowHeight="13395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1401,7 +1401,7 @@
   <dimension ref="B1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tests/databooks/progbook_sir.xlsx
+++ b/tests/databooks/progbook_sir.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\databooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26309013-4B31-4E04-AF06-CC7E63B0708F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C517D133-85A8-0842-B920-4D33C83FC037}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="765" windowWidth="24945" windowHeight="13395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="260" yWindow="760" windowWidth="24940" windowHeight="13400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="2" r:id="rId1"/>
     <sheet name="Spending data" sheetId="3" r:id="rId2"/>
     <sheet name="Program effects" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
   <si>
     <t>Short name</t>
   </si>
@@ -119,15 +119,6 @@
     <t>susdeath</t>
   </si>
   <si>
-    <t>Unit cost: best</t>
-  </si>
-  <si>
-    <t>Unit cost: low</t>
-  </si>
-  <si>
-    <t>Unit cost: high</t>
-  </si>
-  <si>
     <t xml:space="preserve">Eg., imagine this is a flu model, and </t>
   </si>
   <si>
@@ -138,6 +129,15 @@
   </si>
   <si>
     <t xml:space="preserve">• the "Harm reduction 2" intervention encourages both handwashing and staying at home when sick  </t>
+  </si>
+  <si>
+    <t>Unit cost</t>
+  </si>
+  <si>
+    <t>Coverage interaction</t>
+  </si>
+  <si>
+    <t>Impact interaction</t>
   </si>
 </sst>
 </file>
@@ -667,18 +667,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.28515625" customWidth="1"/>
-    <col min="8" max="11" width="9.85546875" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.33203125" customWidth="1"/>
+    <col min="8" max="11" width="9.83203125" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="F1" s="1" t="s">
         <v>16</v>
@@ -687,7 +687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -710,7 +710,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -730,7 +730,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -752,7 +752,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -774,7 +774,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -794,7 +794,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -814,24 +814,24 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J14" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J14" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -841,28 +841,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D2" s="3">
         <v>2014</v>
       </c>
@@ -882,7 +882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="str">
         <f>'Program targeting'!$C$3</f>
         <v>Risk avoidance</v>
@@ -902,7 +902,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="str">
         <f>'Program targeting'!$C$3</f>
         <v>Risk avoidance</v>
@@ -920,13 +920,13 @@
       </c>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="str">
         <f>'Program targeting'!$C$3</f>
         <v>Risk avoidance</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D5" s="8">
         <v>5</v>
@@ -942,137 +942,113 @@
       </c>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="str">
-        <f>'Program targeting'!$C$3</f>
-        <v>Risk avoidance</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="8">
-        <v>3</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="9">
-        <v>6</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="str">
-        <f>'Program targeting'!$C$3</f>
-        <v>Risk avoidance</v>
+        <f>'Program targeting'!$C$4</f>
+        <v>Harm reduction 1</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="8">
-        <v>7</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="9">
-        <v>10</v>
-      </c>
-      <c r="H7" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D7" s="7">
+        <v>200000</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="str">
+        <f>'Program targeting'!$C$4</f>
+        <v>Harm reduction 1</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="7">
+        <v>500000</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="str">
         <f>'Program targeting'!$C$4</f>
         <v>Harm reduction 1</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="8">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="str">
+        <f>'Program targeting'!$C$5</f>
+        <v>Harm reduction 2</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="7">
-        <v>200000</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="str">
-        <f>'Program targeting'!$C$4</f>
-        <v>Harm reduction 1</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="D11" s="7">
+        <v>300000</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="str">
+        <f>'Program targeting'!$C$5</f>
+        <v>Harm reduction 2</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="7">
+      <c r="D12" s="7"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="4">
         <v>500000</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="str">
-        <f>'Program targeting'!$C$4</f>
-        <v>Harm reduction 1</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="8">
-        <v>20</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="str">
-        <f>'Program targeting'!$C$4</f>
-        <v>Harm reduction 1</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="8">
-        <v>10</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="str">
-        <f>'Program targeting'!$C$4</f>
-        <v>Harm reduction 1</v>
+        <f>'Program targeting'!$C$5</f>
+        <v>Harm reduction 2</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8">
         <v>25</v>
@@ -1086,16 +1062,16 @@
       </c>
       <c r="J13" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="str">
-        <f>'Program targeting'!$C$5</f>
-        <v>Harm reduction 2</v>
+        <f>'Program targeting'!$C$6</f>
+        <v>Treatment 1</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="7">
-        <v>300000</v>
+        <v>3500000</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1106,15 +1082,17 @@
       </c>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="str">
-        <f>'Program targeting'!$C$5</f>
-        <v>Harm reduction 2</v>
+        <f>'Program targeting'!$C$6</f>
+        <v>Treatment 1</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7">
+        <v>10000000</v>
+      </c>
       <c r="E16" s="5"/>
       <c r="F16" s="7"/>
       <c r="G16" s="5"/>
@@ -1122,19 +1100,19 @@
       <c r="I16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="4">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="str">
-        <f>'Program targeting'!$C$5</f>
-        <v>Harm reduction 2</v>
+        <f>'Program targeting'!$C$6</f>
+        <v>Treatment 1</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="D17" s="8">
+        <v>120</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="9"/>
@@ -1144,251 +1122,71 @@
       </c>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="str">
-        <f>'Program targeting'!$C$5</f>
-        <v>Harm reduction 2</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="8">
-        <v>20</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="str">
-        <f>'Program targeting'!$C$5</f>
-        <v>Harm reduction 2</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="8">
-        <v>30</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="str">
-        <f>'Program targeting'!$C$6</f>
-        <v>Treatment 1</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3500000</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="str">
-        <f>'Program targeting'!$C$6</f>
-        <v>Treatment 1</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="7">
-        <v>10000000</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="str">
-        <f>'Program targeting'!$C$6</f>
-        <v>Treatment 1</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="8">
-        <v>120</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="str">
-        <f>'Program targeting'!$C$6</f>
-        <v>Treatment 1</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="str">
-        <f>'Program targeting'!$C$6</f>
-        <v>Treatment 1</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="str">
         <f>'Program targeting'!$C$7</f>
         <v>Treatment 2</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D19" s="7">
         <v>1500000</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="7">
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="7">
         <v>2500000</v>
       </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="str">
+      <c r="H19" s="5"/>
+      <c r="I19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="str">
         <f>'Program targeting'!$C$7</f>
         <v>Treatment 2</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D20" s="7">
         <v>5000000</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7">
+      <c r="E20" s="5"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7">
         <v>8000000</v>
       </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="str">
+      <c r="H20" s="5"/>
+      <c r="I20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="str">
         <f>'Program targeting'!$C$7</f>
         <v>Treatment 2</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="8">
+      <c r="C21" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="8">
         <v>100</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="8">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="8">
         <v>80</v>
       </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="str">
-        <f>'Program targeting'!$C$7</f>
-        <v>Treatment 2</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="8">
-        <v>80</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="8">
-        <v>60</v>
-      </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="str">
-        <f>'Program targeting'!$C$7</f>
-        <v>Treatment 2</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="8">
-        <v>120</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="8">
-        <v>100</v>
-      </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J31" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1398,57 +1196,63 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:S11"/>
+  <dimension ref="B1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="E11" sqref="E11:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="2.28515625" customWidth="1"/>
-    <col min="6" max="10" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="2.33203125" customWidth="1"/>
+    <col min="8" max="12" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C1" s="11"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="17"/>
-    </row>
-    <row r="2" spans="2:19" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="M1" s="17"/>
+    </row>
+    <row r="2" spans="2:21" ht="40" x14ac:dyDescent="0.2">
       <c r="C2" s="3"/>
       <c r="D2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="str">
+      <c r="E2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18" t="str">
         <f>'Program targeting'!$C$3</f>
         <v>Risk avoidance</v>
       </c>
-      <c r="G2" s="18" t="str">
+      <c r="I2" s="18" t="str">
         <f>'Program targeting'!$C$4</f>
         <v>Harm reduction 1</v>
       </c>
-      <c r="H2" s="18" t="str">
+      <c r="J2" s="18" t="str">
         <f>'Program targeting'!$C$5</f>
         <v>Harm reduction 2</v>
       </c>
-      <c r="I2" s="18" t="str">
+      <c r="K2" s="18" t="str">
         <f>'Program targeting'!$C$6</f>
         <v>Treatment 1</v>
       </c>
-      <c r="J2" s="18" t="str">
+      <c r="L2" s="18" t="str">
         <f>'Program targeting'!$C$7</f>
         <v>Treatment 2</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
@@ -1458,33 +1262,37 @@
       <c r="D3" s="19">
         <v>0.01</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H3" s="19">
+      <c r="J3" s="19">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-    </row>
-    <row r="4" spans="2:19" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" spans="2:21" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="C4"/>
       <c r="D4" s="20"/>
-      <c r="E4"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="20"/>
-      <c r="H4"/>
-      <c r="I4" s="20"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="G4"/>
+      <c r="H4" s="20"/>
+      <c r="J4"/>
+      <c r="K4" s="20"/>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
@@ -1494,35 +1302,39 @@
       <c r="D5" s="19">
         <v>110</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19">
         <v>15</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19">
+      <c r="I5" s="19"/>
+      <c r="J5" s="19">
         <v>20</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-    </row>
-    <row r="6" spans="2:19" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="2:21" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="12"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="21"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
       <c r="Q6" s="15"/>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
@@ -1532,19 +1344,21 @@
       <c r="D7" s="19">
         <v>8</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="19"/>
-      <c r="I7" s="19">
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19">
         <v>4</v>
       </c>
-      <c r="J7" s="19">
+      <c r="L7" s="19">
         <v>4</v>
       </c>
-      <c r="M7" s="22"/>
-    </row>
-    <row r="8" spans="2:19" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O7" s="22"/>
+    </row>
+    <row r="8" spans="2:21" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="C8"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
@@ -1553,19 +1367,21 @@
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
       <c r="M8" s="15"/>
-      <c r="N8"/>
-      <c r="O8"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
       <c r="P8"/>
       <c r="Q8"/>
-      <c r="S8" s="15">
-        <f>SUM(Q7:Q8)</f>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="U8" s="15">
+        <f>SUM(S7:S8)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
@@ -1575,18 +1391,20 @@
       <c r="D9" s="19">
         <v>0.02</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="19"/>
-      <c r="I9" s="19">
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="J9" s="19">
+      <c r="L9" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:19" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="C10"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
@@ -1595,15 +1413,17 @@
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
       <c r="M10" s="15"/>
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
@@ -1611,14 +1431,24 @@
         <v>6</v>
       </c>
       <c r="D11" s="14"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="12"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3 F5 F7 F9 F11" xr:uid="{C4DE290D-534C-9047-9209-FC69B32FB289}">
+      <formula1>"Synergistic,best"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E5 E7 E9 E11" xr:uid="{C25F921C-5428-3A43-AFAE-A2B151EFD100}">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tests/databooks/progbook_sir.xlsx
+++ b/tests/databooks/progbook_sir.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C517D133-85A8-0842-B920-4D33C83FC037}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4381D0CF-D646-CC43-991E-CB65522FC133}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="760" windowWidth="24940" windowHeight="13400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="260" yWindow="760" windowWidth="24940" windowHeight="13400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
   <si>
     <t>Short name</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>Recovered</t>
-  </si>
-  <si>
-    <t>Dead</t>
   </si>
   <si>
     <t>Value with no interventions</t>
@@ -663,9 +660,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -674,11 +673,11 @@
     <col min="5" max="5" width="2.33203125" customWidth="1"/>
     <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.33203125" customWidth="1"/>
-    <col min="8" max="11" width="9.83203125" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="8" max="10" width="9.83203125" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="F1" s="1" t="s">
         <v>16</v>
@@ -687,7 +686,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -706,11 +705,8 @@
       <c r="J2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -728,9 +724,8 @@
         <v>1</v>
       </c>
       <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -750,9 +745,8 @@
         <v>1</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -772,9 +766,8 @@
         <v>1</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -792,9 +785,8 @@
         <v>1</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -812,26 +804,25 @@
         <v>1</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J12" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J13" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J14" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J14" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -926,7 +917,7 @@
         <v>Risk avoidance</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="8">
         <v>5</v>
@@ -988,7 +979,7 @@
         <v>Harm reduction 1</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="8">
         <v>20</v>
@@ -1048,7 +1039,7 @@
         <v>Harm reduction 2</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="8">
         <v>25</v>
@@ -1108,7 +1099,7 @@
         <v>Treatment 1</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="8">
         <v>120</v>
@@ -1172,7 +1163,7 @@
         <v>Treatment 2</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="8">
         <v>100</v>
@@ -1198,7 +1189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11:F11"/>
     </sheetView>
   </sheetViews>
@@ -1215,20 +1206,20 @@
       <c r="C1" s="11"/>
       <c r="G1" s="12"/>
       <c r="H1" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M1" s="17"/>
     </row>
     <row r="2" spans="2:21" ht="40" x14ac:dyDescent="0.2">
       <c r="C2" s="3"/>
       <c r="D2" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>34</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>35</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="18" t="str">
@@ -1254,7 +1245,7 @@
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>6</v>
@@ -1294,7 +1285,7 @@
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>6</v>
@@ -1336,7 +1327,7 @@
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>6</v>
@@ -1383,7 +1374,7 @@
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>6</v>
@@ -1425,7 +1416,7 @@
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>6</v>

--- a/tests/databooks/progbook_sir.xlsx
+++ b/tests/databooks/progbook_sir.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\databooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4381D0CF-D646-CC43-991E-CB65522FC133}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFDF013-9F1C-4F6A-925F-DD6D6611E705}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="760" windowWidth="24940" windowHeight="13400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="255" yWindow="765" windowWidth="24945" windowHeight="13395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="2" r:id="rId1"/>
     <sheet name="Spending data" sheetId="3" r:id="rId2"/>
     <sheet name="Program effects" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,17 +29,83 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{2599720C-ECA7-4670-8713-653862E04054}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>In this column, enter the baseline value for "Vaccination rate" if none of the programs reach this parameter (e.g., if the coverage is 0)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{340902FE-2030-4AF7-B3A5-221873CE1BB0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>In this column, enter the baseline value for "Vaccination rate" if none of the programs reach this parameter (e.g., if the coverage is 0)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{0189B808-D60E-4952-B1A3-B4CBE019DDA4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>In this column, enter the baseline value for "Vaccination rate" if none of the programs reach this parameter (e.g., if the coverage is 0)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{C86F6D5B-BACF-4756-B96A-D01AB4B2694D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>In this column, enter the baseline value for "Vaccination rate" if none of the programs reach this parameter (e.g., if the coverage is 0)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{A065C3F5-8053-4825-9BF4-3034A6E0EE99}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>In this column, enter the baseline value for "Vaccination rate" if none of the programs reach this parameter (e.g., if the coverage is 0)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
-  <si>
-    <t>Short name</t>
-  </si>
-  <si>
-    <t>Long name</t>
-  </si>
-  <si>
-    <t>Cost &amp; coverage</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="34">
   <si>
     <t>Assumption</t>
   </si>
@@ -95,12 +161,6 @@
     <t>Recovered</t>
   </si>
   <si>
-    <t>Value with no interventions</t>
-  </si>
-  <si>
-    <t>Value for a person covered by this program alone:</t>
-  </si>
-  <si>
     <t>transpercontact</t>
   </si>
   <si>
@@ -135,6 +195,18 @@
   </si>
   <si>
     <t>Impact interaction</t>
+  </si>
+  <si>
+    <t>Abbreviation</t>
+  </si>
+  <si>
+    <t>Display name</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t>Baseline value</t>
   </si>
 </sst>
 </file>
@@ -146,7 +218,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +301,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -288,7 +366,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -347,6 +425,9 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -660,169 +741,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="50.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.33203125" customWidth="1"/>
-    <col min="8" max="10" width="9.83203125" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="3">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
         <v>1</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
-      <c r="H4" s="4">
+      <c r="G4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="4">
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4">
         <v>1</v>
-      </c>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
       </c>
-      <c r="H5" s="4">
+      <c r="G5" s="4">
         <v>1</v>
       </c>
-      <c r="I5" s="4">
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="3">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
         <v>1</v>
       </c>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="4">
-        <v>1</v>
-      </c>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J14" t="s">
-        <v>31</v>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -832,352 +898,458 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D2" s="3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="str">
+        <f>'Program targeting'!$A$3</f>
+        <v>Risk avoidance</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3">
         <v>2014</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E1" s="3">
         <v>2015</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F1" s="3">
         <v>2016</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G1" s="3">
         <v>2017</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H1" s="3">
         <v>2018</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="str">
-        <f>'Program targeting'!$C$3</f>
-        <v>Risk avoidance</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="7">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7">
         <v>500000</v>
       </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="6" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8">
         <v>5</v>
       </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="str">
-        <f>'Program targeting'!$C$3</f>
-        <v>Risk avoidance</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="str">
-        <f>'Program targeting'!$C$3</f>
-        <v>Risk avoidance</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="9">
+        <v>7</v>
+      </c>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="8">
-        <v>5</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="9">
-        <v>7</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="str">
-        <f>'Program targeting'!$C$4</f>
+      <c r="B5" s="4"/>
+      <c r="C5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="str">
+        <f>'Program targeting'!$A$4</f>
         <v>Harm reduction 1</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2014</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2015</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2016</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2017</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7">
         <v>200000</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="str">
-        <f>'Program targeting'!$C$4</f>
-        <v>Harm reduction 1</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="7"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="7">
-        <v>500000</v>
-      </c>
+      <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="str">
-        <f>'Program targeting'!$C$4</f>
-        <v>Harm reduction 1</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="7">
+        <v>500000</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="8">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="8">
+      <c r="B11" s="4"/>
+      <c r="C11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="8">
         <v>20</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="6" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="str">
+        <f>'Program targeting'!$A$5</f>
+        <v>Harm reduction 2</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2014</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2015</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2016</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2017</v>
+      </c>
+      <c r="H13" s="3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>300000</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="str">
-        <f>'Program targeting'!$C$5</f>
-        <v>Harm reduction 2</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="7">
-        <v>300000</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="str">
-        <f>'Program targeting'!$C$5</f>
-        <v>Harm reduction 2</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="4">
+      <c r="B15" s="4">
         <v>500000</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="str">
-        <f>'Program targeting'!$C$5</f>
-        <v>Harm reduction 2</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="8">
-        <v>25</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="str">
-        <f>'Program targeting'!$C$6</f>
-        <v>Treatment 1</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="7">
-        <v>3500000</v>
-      </c>
+      <c r="C15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="str">
-        <f>'Program targeting'!$C$6</f>
-        <v>Treatment 1</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="7">
-        <v>10000000</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="str">
-        <f>'Program targeting'!$C$6</f>
-        <v>Treatment 1</v>
-      </c>
-      <c r="C17" s="10" t="s">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="8">
+        <v>25</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="8">
-        <v>120</v>
-      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="8"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="9"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="6" t="s">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="str">
+        <f>'Program targeting'!$A$6</f>
+        <v>Treatment 1</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2014</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2015</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2016</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2017</v>
+      </c>
+      <c r="H19" s="3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>3500000</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="str">
-        <f>'Program targeting'!$C$7</f>
+      <c r="B21" s="4"/>
+      <c r="C21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="7">
+        <v>10000000</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="8">
+        <v>120</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="str">
+        <f>'Program targeting'!$A$7</f>
         <v>Treatment 2</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="7">
+      <c r="B25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2014</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2015</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2016</v>
+      </c>
+      <c r="G25" s="3">
+        <v>2017</v>
+      </c>
+      <c r="H25" s="3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7">
         <v>1500000</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="7">
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="7">
         <v>2500000</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="6" t="s">
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="str">
-        <f>'Program targeting'!$C$7</f>
-        <v>Treatment 2</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="7">
+      <c r="B27" s="4"/>
+      <c r="C27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="7">
         <v>5000000</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7">
+      <c r="E27" s="5"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7">
         <v>8000000</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="3" t="str">
-        <f>'Program targeting'!$C$7</f>
-        <v>Treatment 2</v>
-      </c>
-      <c r="C21" s="10" t="s">
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="8">
+        <v>100</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="8">
+        <v>80</v>
+      </c>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="8">
-        <v>100</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="8">
-        <v>80</v>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1186,260 +1358,403 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:U11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.83203125" customWidth="1"/>
-    <col min="7" max="7" width="2.33203125" customWidth="1"/>
-    <col min="8" max="12" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" customWidth="1"/>
+    <col min="6" max="10" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="C1" s="11"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="23" t="s">
+    <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18" t="str">
+        <f>'Program targeting'!$A$3</f>
+        <v>Risk avoidance</v>
+      </c>
+      <c r="G1" s="18" t="str">
+        <f>'Program targeting'!$A$4</f>
+        <v>Harm reduction 1</v>
+      </c>
+      <c r="H1" s="18" t="str">
+        <f>'Program targeting'!$A$5</f>
+        <v>Harm reduction 2</v>
+      </c>
+      <c r="I1" s="18" t="str">
+        <f>'Program targeting'!$A$6</f>
+        <v>Treatment 1</v>
+      </c>
+      <c r="J1" s="18" t="str">
+        <f>'Program targeting'!$A$7</f>
+        <v>Treatment 2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H2" s="19">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+    </row>
+    <row r="3" spans="1:19" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3"/>
+      <c r="F3" s="20"/>
+      <c r="H3"/>
+      <c r="I3" s="20"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="23"/>
+      <c r="K4" s="17"/>
+    </row>
+    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18" t="str">
+        <f>'Program targeting'!$A$3</f>
+        <v>Risk avoidance</v>
+      </c>
+      <c r="G5" s="18" t="str">
+        <f>'Program targeting'!$A$4</f>
+        <v>Harm reduction 1</v>
+      </c>
+      <c r="H5" s="18" t="str">
+        <f>'Program targeting'!$A$5</f>
+        <v>Harm reduction 2</v>
+      </c>
+      <c r="I5" s="18" t="str">
+        <f>'Program targeting'!$A$6</f>
+        <v>Treatment 1</v>
+      </c>
+      <c r="J5" s="18" t="str">
+        <f>'Program targeting'!$A$7</f>
+        <v>Treatment 2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="19">
+        <v>110</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19">
+        <v>15</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19">
+        <v>20</v>
+      </c>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:19" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="23"/>
+      <c r="K8" s="17"/>
+    </row>
+    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18" t="str">
+        <f>'Program targeting'!$A$3</f>
+        <v>Risk avoidance</v>
+      </c>
+      <c r="G9" s="18" t="str">
+        <f>'Program targeting'!$A$4</f>
+        <v>Harm reduction 1</v>
+      </c>
+      <c r="H9" s="18" t="str">
+        <f>'Program targeting'!$A$5</f>
+        <v>Harm reduction 2</v>
+      </c>
+      <c r="I9" s="18" t="str">
+        <f>'Program targeting'!$A$6</f>
+        <v>Treatment 1</v>
+      </c>
+      <c r="J9" s="18" t="str">
+        <f>'Program targeting'!$A$7</f>
+        <v>Treatment 2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="19">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19">
+        <v>4</v>
+      </c>
+      <c r="J10" s="19">
+        <v>4</v>
+      </c>
+      <c r="M10" s="22"/>
+    </row>
+    <row r="11" spans="1:19" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="S11" s="15">
+        <f>SUM(Q10:Q11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="23"/>
+      <c r="K12" s="17"/>
+    </row>
+    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18" t="str">
+        <f>'Program targeting'!$A$3</f>
+        <v>Risk avoidance</v>
+      </c>
+      <c r="G13" s="18" t="str">
+        <f>'Program targeting'!$A$4</f>
+        <v>Harm reduction 1</v>
+      </c>
+      <c r="H13" s="18" t="str">
+        <f>'Program targeting'!$A$5</f>
+        <v>Harm reduction 2</v>
+      </c>
+      <c r="I13" s="18" t="str">
+        <f>'Program targeting'!$A$6</f>
+        <v>Treatment 1</v>
+      </c>
+      <c r="J13" s="18" t="str">
+        <f>'Program targeting'!$A$7</f>
+        <v>Treatment 2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J14" s="19">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="23"/>
+      <c r="K16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="17"/>
-    </row>
-    <row r="2" spans="2:21" ht="40" x14ac:dyDescent="0.2">
-      <c r="C2" s="3"/>
-      <c r="D2" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="18" t="s">
+      <c r="B17" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18" t="str">
-        <f>'Program targeting'!$C$3</f>
+      <c r="C17" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18" t="str">
+        <f>'Program targeting'!$A$3</f>
         <v>Risk avoidance</v>
       </c>
-      <c r="I2" s="18" t="str">
-        <f>'Program targeting'!$C$4</f>
+      <c r="G17" s="18" t="str">
+        <f>'Program targeting'!$A$4</f>
         <v>Harm reduction 1</v>
       </c>
-      <c r="J2" s="18" t="str">
-        <f>'Program targeting'!$C$5</f>
+      <c r="H17" s="18" t="str">
+        <f>'Program targeting'!$A$5</f>
         <v>Harm reduction 2</v>
       </c>
-      <c r="K2" s="18" t="str">
-        <f>'Program targeting'!$C$6</f>
+      <c r="I17" s="18" t="str">
+        <f>'Program targeting'!$A$6</f>
         <v>Treatment 1</v>
       </c>
-      <c r="L2" s="18" t="str">
-        <f>'Program targeting'!$C$7</f>
+      <c r="J17" s="18" t="str">
+        <f>'Program targeting'!$A$7</f>
         <v>Treatment 2</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="19">
-        <v>0.01</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J3" s="19">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-    </row>
-    <row r="4" spans="2:21" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="C4"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4"/>
-      <c r="H4" s="20"/>
-      <c r="J4"/>
-      <c r="K4" s="20"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="19">
-        <v>110</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19">
-        <v>15</v>
-      </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19">
-        <v>20</v>
-      </c>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-    </row>
-    <row r="6" spans="2:21" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="12"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="19">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19">
-        <v>4</v>
-      </c>
-      <c r="L7" s="19">
-        <v>4</v>
-      </c>
-      <c r="O7" s="22"/>
-    </row>
-    <row r="8" spans="2:21" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="C8"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="U8" s="15">
-        <f>SUM(S7:S8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="19">
-        <v>0.02</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="L9" s="19">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="C10"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3 F5 F7 F9 F11" xr:uid="{C4DE290D-534C-9047-9209-FC69B32FB289}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D6 D10 D14 D18" xr:uid="{C4DE290D-534C-9047-9209-FC69B32FB289}">
       <formula1>"Synergistic,best"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E5 E7 E9 E11" xr:uid="{C25F921C-5428-3A43-AFAE-A2B151EFD100}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C6 C10 C14 C18" xr:uid="{C25F921C-5428-3A43-AFAE-A2B151EFD100}">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/tests/databooks/progbook_sir.xlsx
+++ b/tests/databooks/progbook_sir.xlsx
@@ -1,27 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\databooks\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E536BE9-22DB-4972-A22F-0D34C3683D36}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="1" r:id="rId1"/>
     <sheet name="Spending data" sheetId="2" r:id="rId2"/>
     <sheet name="Program effects" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -34,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -91,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="35">
   <si>
     <t>Targeted to (populations)</t>
   </si>
@@ -193,13 +199,16 @@
   </si>
   <si>
     <t>Death rate for susceptible people</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,9 +293,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -308,7 +316,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="90">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -325,7 +340,51 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="lightUp"/>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -335,8 +394,529 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -383,7 +963,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -415,9 +995,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -449,6 +1047,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -624,369 +1240,280 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="72.140625" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="5" max="7" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="11" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="12" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="73" priority="37" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="38" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="0" priority="17" operator="equal">
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="71" priority="45" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="46" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="0" priority="25" operator="equal">
+  <conditionalFormatting sqref="F3">
+    <cfRule type="cellIs" dxfId="69" priority="15" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="16" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="0" priority="33" operator="equal">
+  <conditionalFormatting sqref="F4">
+    <cfRule type="cellIs" dxfId="67" priority="23" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="24" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="cellIs" dxfId="65" priority="31" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="32" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="cellIs" dxfId="59" priority="17" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="18" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="cellIs" dxfId="57" priority="25" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="26" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="cellIs" dxfId="55" priority="33" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="34" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="53" priority="41" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="42" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C7">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
+  <conditionalFormatting sqref="F6:F7">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="0" priority="27" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="28" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="0" priority="35" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="36" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="0" priority="21" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="22" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="30" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="0" priority="37" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="38" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="0" priority="23" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="24" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="0" priority="31" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="32" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="0" priority="39" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="40" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="20">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C7 E3:G7" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
@@ -995,12 +1522,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
@@ -1008,637 +1535,637 @@
     <col min="4" max="4" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5">
         <v>2014</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="5">
         <v>2015</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="5">
         <v>2016</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="5">
         <v>2017</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="5">
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>500000</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="3" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="5" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>5</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7">
         <v>7</v>
       </c>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="3" t="s">
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="5" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="6" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
         <v>2014</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>2015</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>2016</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>2017</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="5" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>200000</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="3" t="s">
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="5" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7">
         <v>500000</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="3" t="s">
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="5" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>20</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="3" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="5" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>20</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="6" t="s">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5">
         <v>2014</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>2015</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>2016</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>2017</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="5" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>300000</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="3" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8">
+      <c r="B15" s="6"/>
+      <c r="C15" s="7">
         <v>500000</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="3" t="s">
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="5" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>25</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="3" t="s">
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="5" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="6" t="s">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5">
         <v>2014</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>2015</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>2016</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <v>2017</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="5">
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="5" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="7">
         <v>3500000</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="3" t="s">
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="5" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
         <v>10000000</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="3" t="s">
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="5" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="7">
         <v>120</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="3" t="s">
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="5" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="6" t="s">
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5">
         <v>2014</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>2015</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>2016</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <v>2017</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="5">
         <v>2018</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="5" t="s">
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="7">
         <v>1500000</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8">
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7">
         <v>2500000</v>
       </c>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="3" t="s">
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="5" t="s">
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="7">
         <v>5000000</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8">
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7">
         <v>8000000</v>
       </c>
-      <c r="I27" s="8"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="3" t="s">
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="5" t="s">
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="7">
         <v>100</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8">
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7">
         <v>80</v>
       </c>
-      <c r="I28" s="8"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="3" t="s">
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="5" t="s">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="2" priority="13">
+    <cfRule type="expression" dxfId="49" priority="13">
       <formula>COUNTIF(E10:I10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="14">
+    <cfRule type="expression" dxfId="48" priority="14">
       <formula>AND(COUNTIF(E10:I10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="2" priority="15">
+    <cfRule type="expression" dxfId="47" priority="15">
       <formula>COUNTIF(E11:I11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="16">
+    <cfRule type="expression" dxfId="46" priority="16">
       <formula>AND(COUNTIF(E11:I11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="2" priority="17">
+    <cfRule type="expression" dxfId="45" priority="17">
       <formula>COUNTIF(E14:I14,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="18">
+    <cfRule type="expression" dxfId="44" priority="18">
       <formula>AND(COUNTIF(E14:I14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="2" priority="19">
+    <cfRule type="expression" dxfId="43" priority="19">
       <formula>COUNTIF(E15:I15,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="20">
+    <cfRule type="expression" dxfId="42" priority="20">
       <formula>AND(COUNTIF(E15:I15,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="2" priority="21">
+    <cfRule type="expression" dxfId="41" priority="21">
       <formula>COUNTIF(E16:I16,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="22">
+    <cfRule type="expression" dxfId="40" priority="22">
       <formula>AND(COUNTIF(E16:I16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="2" priority="23">
+    <cfRule type="expression" dxfId="39" priority="23">
       <formula>COUNTIF(E17:I17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="24">
+    <cfRule type="expression" dxfId="38" priority="24">
       <formula>AND(COUNTIF(E17:I17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="37" priority="1">
       <formula>COUNTIF(E2:I2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="36" priority="2">
       <formula>AND(COUNTIF(E2:I2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="2" priority="25">
+    <cfRule type="expression" dxfId="35" priority="25">
       <formula>COUNTIF(E20:I20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="26">
+    <cfRule type="expression" dxfId="34" priority="26">
       <formula>AND(COUNTIF(E20:I20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="2" priority="27">
+    <cfRule type="expression" dxfId="33" priority="27">
       <formula>COUNTIF(E21:I21,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="28">
+    <cfRule type="expression" dxfId="32" priority="28">
       <formula>AND(COUNTIF(E21:I21,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="2" priority="29">
+    <cfRule type="expression" dxfId="31" priority="29">
       <formula>COUNTIF(E22:I22,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="30">
+    <cfRule type="expression" dxfId="30" priority="30">
       <formula>AND(COUNTIF(E22:I22,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="2" priority="31">
+    <cfRule type="expression" dxfId="29" priority="31">
       <formula>COUNTIF(E23:I23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="32">
+    <cfRule type="expression" dxfId="28" priority="32">
       <formula>AND(COUNTIF(E23:I23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="2" priority="33">
+    <cfRule type="expression" dxfId="27" priority="33">
       <formula>COUNTIF(E26:I26,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="34">
+    <cfRule type="expression" dxfId="26" priority="34">
       <formula>AND(COUNTIF(E26:I26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="2" priority="35">
+    <cfRule type="expression" dxfId="25" priority="35">
       <formula>COUNTIF(E27:I27,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="36">
+    <cfRule type="expression" dxfId="24" priority="36">
       <formula>AND(COUNTIF(E27:I27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="2" priority="37">
+    <cfRule type="expression" dxfId="23" priority="37">
       <formula>COUNTIF(E28:I28,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="38">
+    <cfRule type="expression" dxfId="22" priority="38">
       <formula>AND(COUNTIF(E28:I28,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="2" priority="39">
+    <cfRule type="expression" dxfId="21" priority="39">
       <formula>COUNTIF(E29:I29,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="40">
+    <cfRule type="expression" dxfId="20" priority="40">
       <formula>AND(COUNTIF(E29:I29,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="19" priority="3">
       <formula>COUNTIF(E3:I3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="18" priority="4">
       <formula>AND(COUNTIF(E3:I3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="17" priority="5">
       <formula>COUNTIF(E4:I4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="16" priority="6">
       <formula>AND(COUNTIF(E4:I4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="15" priority="7">
       <formula>COUNTIF(E5:I5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="14" priority="8">
       <formula>AND(COUNTIF(E5:I5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="13" priority="9">
       <formula>COUNTIF(E8:I8,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="10">
+    <cfRule type="expression" dxfId="12" priority="10">
       <formula>AND(COUNTIF(E8:I8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="2" priority="11">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>COUNTIF(E9:I9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="12">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>AND(COUNTIF(E9:I9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1647,355 +2174,326 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="2" max="5" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="8" max="9" width="19.28515625" customWidth="1"/>
+    <col min="10" max="11" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="3" t="str">
+      <c r="G1" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
         <v>Risk avoidance</v>
       </c>
-      <c r="H1" s="3" t="str">
+      <c r="H1" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
         <v>Harm reduction 1</v>
       </c>
-      <c r="I1" s="3" t="str">
+      <c r="I1" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
         <v>Harm reduction 2</v>
       </c>
-      <c r="J1" s="3" t="str">
+      <c r="J1" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
         <v>Treatment 1</v>
       </c>
-      <c r="K1" s="3" t="str">
+      <c r="K1" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
         <v>Treatment 2</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>0.01</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8">
-        <v>0.004</v>
-      </c>
-      <c r="I2" s="8">
-        <v>0.003</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
+      <c r="E2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I2" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="3" t="str">
+      <c r="G4" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
         <v>Risk avoidance</v>
       </c>
-      <c r="H4" s="3" t="str">
+      <c r="H4" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
         <v>Harm reduction 1</v>
       </c>
-      <c r="I4" s="3" t="str">
+      <c r="I4" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
         <v>Harm reduction 2</v>
       </c>
-      <c r="J4" s="3" t="str">
+      <c r="J4" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
         <v>Treatment 1</v>
       </c>
-      <c r="K4" s="3" t="str">
+      <c r="K4" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
         <v>Treatment 2</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>110</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="G5" s="8">
+      <c r="E5" s="6"/>
+      <c r="G5" s="7">
         <v>15</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8">
+      <c r="H5" s="6"/>
+      <c r="I5" s="7">
         <v>20</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="2" t="s">
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="3" t="str">
+      <c r="G7" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
         <v>Risk avoidance</v>
       </c>
-      <c r="H7" s="3" t="str">
+      <c r="H7" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
         <v>Harm reduction 1</v>
       </c>
-      <c r="I7" s="3" t="str">
+      <c r="I7" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
         <v>Harm reduction 2</v>
       </c>
-      <c r="J7" s="3" t="str">
+      <c r="J7" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
         <v>Treatment 1</v>
       </c>
-      <c r="K7" s="3" t="str">
+      <c r="K7" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
         <v>Treatment 2</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>8</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8">
+      <c r="E8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7">
         <v>4</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="3" t="str">
+      <c r="G10" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
         <v>Risk avoidance</v>
       </c>
-      <c r="H10" s="3" t="str">
+      <c r="H10" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
         <v>Harm reduction 1</v>
       </c>
-      <c r="I10" s="3" t="str">
+      <c r="I10" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
         <v>Harm reduction 2</v>
       </c>
-      <c r="J10" s="3" t="str">
+      <c r="J10" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
         <v>Treatment 1</v>
       </c>
-      <c r="K10" s="3" t="str">
+      <c r="K10" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
         <v>Treatment 2</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>0.02</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="8">
-        <v>0.015</v>
-      </c>
-      <c r="K11" s="8">
-        <v>0.011</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="2" t="s">
+      <c r="E11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K11" s="7">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="3" t="str">
+      <c r="G13" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
         <v>Risk avoidance</v>
       </c>
-      <c r="H13" s="3" t="str">
+      <c r="H13" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
         <v>Harm reduction 1</v>
       </c>
-      <c r="I13" s="3" t="str">
+      <c r="I13" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
         <v>Harm reduction 2</v>
       </c>
-      <c r="J13" s="3" t="str">
+      <c r="J13" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
         <v>Treatment 1</v>
       </c>
-      <c r="K13" s="3" t="str">
+      <c r="K13" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
         <v>Treatment 2</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
     </row>
   </sheetData>
-  <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C14 C11 C8 C5" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D14 D11 D8 D5" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Synergistic,Best"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/databooks/progbook_sir.xlsx
+++ b/tests/databooks/progbook_sir.xlsx
@@ -15,81 +15,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>In this column, enter the baseline value for "Transmission probability per contact" if none of the programs reach this parameter (e.g., if the coverage is 0)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>In this column, enter the baseline value for "Number of contacts annually" if none of the programs reach this parameter (e.g., if the coverage is 0)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>In this column, enter the baseline value for "Average duration of infections (years)" if none of the programs reach this parameter (e.g., if the coverage is 0)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>In this column, enter the baseline value for "Death rate for infected people" if none of the programs reach this parameter (e.g., if the coverage is 0)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>In this column, enter the baseline value for "Death rate for susceptible people" if none of the programs reach this parameter (e.g., if the coverage is 0)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="36">
   <si>
@@ -159,16 +84,16 @@
     <t>OR</t>
   </si>
   <si>
-    <t>Capacity constraints</t>
-  </si>
-  <si>
     <t>Unit cost</t>
   </si>
   <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>Saturation</t>
+  </si>
+  <si>
     <t>Coverage</t>
-  </si>
-  <si>
-    <t>Demand constraint</t>
   </si>
   <si>
     <t>Transmission probability per contact</t>
@@ -205,19 +130,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -237,7 +156,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF18C1FF"/>
+        <fgColor rgb="FF98E0FA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,22 +209,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -662,30 +579,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -696,16 +613,16 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -716,16 +633,16 @@
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -736,16 +653,16 @@
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -756,16 +673,16 @@
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -776,16 +693,16 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -964,559 +881,559 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2">
         <v>2014</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="2">
         <v>2015</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="2">
         <v>2016</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="2">
         <v>2017</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="2">
         <v>2018</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="8">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="6">
         <v>500000</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="6">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6">
+        <v>7</v>
+      </c>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="8">
-        <v>5</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8">
-        <v>7</v>
-      </c>
-      <c r="I4" s="8"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
         <v>2014</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="2">
         <v>2015</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="2">
         <v>2016</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="2">
         <v>2017</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="2">
         <v>2018</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="8">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="6">
         <v>200000</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="6">
+        <v>20</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6">
         <v>500000</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="3" t="s">
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="6">
+        <v>20</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2015</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2016</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2017</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="6">
+        <v>300000</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="6">
+        <v>25</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6">
+        <v>500000</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2015</v>
+      </c>
+      <c r="G22" s="2">
+        <v>2016</v>
+      </c>
+      <c r="H22" s="2">
+        <v>2017</v>
+      </c>
+      <c r="I22" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="3" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="6">
+        <v>3500000</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="6">
+        <v>120</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2015</v>
+      </c>
+      <c r="G29" s="2">
+        <v>2016</v>
+      </c>
+      <c r="H29" s="2">
+        <v>2017</v>
+      </c>
+      <c r="I29" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="3" t="s">
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1500000</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6">
+        <v>2500000</v>
+      </c>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="6">
+        <v>100</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6">
+        <v>80</v>
+      </c>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="6">
+        <v>5000000</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6">
+        <v>8000000</v>
+      </c>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6">
-        <v>2014</v>
-      </c>
-      <c r="F15" s="6">
-        <v>2015</v>
-      </c>
-      <c r="G15" s="6">
-        <v>2016</v>
-      </c>
-      <c r="H15" s="6">
-        <v>2017</v>
-      </c>
-      <c r="I15" s="6">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="8">
-        <v>300000</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8">
-        <v>500000</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="8">
-        <v>25</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6">
-        <v>2014</v>
-      </c>
-      <c r="F22" s="6">
-        <v>2015</v>
-      </c>
-      <c r="G22" s="6">
-        <v>2016</v>
-      </c>
-      <c r="H22" s="6">
-        <v>2017</v>
-      </c>
-      <c r="I22" s="6">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="8">
-        <v>3500000</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="8">
-        <v>10000000</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="8">
-        <v>120</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6">
-        <v>2014</v>
-      </c>
-      <c r="F29" s="6">
-        <v>2015</v>
-      </c>
-      <c r="G29" s="6">
-        <v>2016</v>
-      </c>
-      <c r="H29" s="6">
-        <v>2017</v>
-      </c>
-      <c r="I29" s="6">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="8">
-        <v>1500000</v>
-      </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8">
-        <v>2500000</v>
-      </c>
-      <c r="I30" s="8"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="8">
-        <v>5000000</v>
-      </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8">
-        <v>8000000</v>
-      </c>
-      <c r="I31" s="8"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="8">
-        <v>100</v>
-      </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8">
-        <v>80</v>
-      </c>
-      <c r="I32" s="8"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C10">
@@ -1744,38 +1661,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="3" t="str">
+      <c r="G1" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
         <v>Risk avoidance</v>
       </c>
-      <c r="H1" s="3" t="str">
+      <c r="H1" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
         <v>Harm reduction 1</v>
       </c>
-      <c r="I1" s="3" t="str">
+      <c r="I1" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
         <v>Harm reduction 2</v>
       </c>
-      <c r="J1" s="3" t="str">
+      <c r="J1" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
         <v>Treatment 1</v>
       </c>
-      <c r="K1" s="3" t="str">
+      <c r="K1" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
         <v>Treatment 2</v>
       </c>
@@ -1785,59 +1702,59 @@
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <v>0.01</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8">
+      <c r="E2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6">
         <v>0.004</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="6">
         <v>0.003</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="3" t="str">
+      <c r="G4" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
         <v>Risk avoidance</v>
       </c>
-      <c r="H4" s="3" t="str">
+      <c r="H4" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
         <v>Harm reduction 1</v>
       </c>
-      <c r="I4" s="3" t="str">
+      <c r="I4" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
         <v>Harm reduction 2</v>
       </c>
-      <c r="J4" s="3" t="str">
+      <c r="J4" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
         <v>Treatment 1</v>
       </c>
-      <c r="K4" s="3" t="str">
+      <c r="K4" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
         <v>Treatment 2</v>
       </c>
@@ -1847,59 +1764,59 @@
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>110</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="G5" s="8">
+      <c r="E5" s="5"/>
+      <c r="G5" s="6">
         <v>15</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8">
+      <c r="H5" s="5"/>
+      <c r="I5" s="6">
         <v>20</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="3" t="str">
+      <c r="G7" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
         <v>Risk avoidance</v>
       </c>
-      <c r="H7" s="3" t="str">
+      <c r="H7" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
         <v>Harm reduction 1</v>
       </c>
-      <c r="I7" s="3" t="str">
+      <c r="I7" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
         <v>Harm reduction 2</v>
       </c>
-      <c r="J7" s="3" t="str">
+      <c r="J7" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
         <v>Treatment 1</v>
       </c>
-      <c r="K7" s="3" t="str">
+      <c r="K7" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
         <v>Treatment 2</v>
       </c>
@@ -1909,59 +1826,59 @@
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="6">
         <v>8</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8">
+      <c r="E8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6">
         <v>4</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="3" t="str">
+      <c r="G10" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
         <v>Risk avoidance</v>
       </c>
-      <c r="H10" s="3" t="str">
+      <c r="H10" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
         <v>Harm reduction 1</v>
       </c>
-      <c r="I10" s="3" t="str">
+      <c r="I10" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
         <v>Harm reduction 2</v>
       </c>
-      <c r="J10" s="3" t="str">
+      <c r="J10" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
         <v>Treatment 1</v>
       </c>
-      <c r="K10" s="3" t="str">
+      <c r="K10" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
         <v>Treatment 2</v>
       </c>
@@ -1971,59 +1888,59 @@
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="6">
         <v>0.02</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="8">
+      <c r="E11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="6">
         <v>0.015</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="6">
         <v>0.011</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="3" t="str">
+      <c r="G13" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
         <v>Risk avoidance</v>
       </c>
-      <c r="H13" s="3" t="str">
+      <c r="H13" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
         <v>Harm reduction 1</v>
       </c>
-      <c r="I13" s="3" t="str">
+      <c r="I13" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
         <v>Harm reduction 2</v>
       </c>
-      <c r="J13" s="3" t="str">
+      <c r="J13" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
         <v>Treatment 1</v>
       </c>
-      <c r="K13" s="3" t="str">
+      <c r="K13" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
         <v>Treatment 2</v>
       </c>
@@ -2033,15 +1950,15 @@
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G11">
@@ -2277,6 +2194,5 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/tests/databooks/progbook_sir.xlsx
+++ b/tests/databooks/progbook_sir.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="40">
   <si>
     <t>Targeted to (populations)</t>
   </si>
@@ -72,13 +72,19 @@
     <t>Treatment 2</t>
   </si>
   <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>Uncertainty</t>
   </si>
   <si>
     <t>Assumption</t>
   </si>
   <si>
-    <t>Total spend</t>
+    <t>Annual spend</t>
+  </si>
+  <si>
+    <t>$/year</t>
   </si>
   <si>
     <t>OR</t>
@@ -87,12 +93,21 @@
     <t>Unit cost</t>
   </si>
   <si>
+    <t>$/person</t>
+  </si>
+  <si>
     <t>Capacity</t>
   </si>
   <si>
+    <t>people/year</t>
+  </si>
+  <si>
     <t>Saturation</t>
   </si>
   <si>
+    <t>N.A.</t>
+  </si>
+  <si>
     <t>Coverage</t>
   </si>
   <si>
@@ -108,10 +123,7 @@
     <t>Impact interaction</t>
   </si>
   <si>
-    <t>additive</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>Additive</t>
   </si>
   <si>
     <t>Number of contacts annually</t>
@@ -875,7 +887,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -883,13 +895,15 @@
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="str">
+        <f>'Program targeting'!$A$3</f>
+        <v>Risk avoidance</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>18</v>
@@ -897,107 +911,126 @@
       <c r="C1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2">
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2">
         <v>2014</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>2015</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>2016</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>2017</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="6">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="6">
         <v>500000</v>
       </c>
-      <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="6">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="6">
         <v>5</v>
       </c>
-      <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="6">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6">
         <v>7</v>
       </c>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2" t="str">
+        <f>'Program targeting'!$A$4</f>
+        <v>Harm reduction 1</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
@@ -1005,109 +1038,128 @@
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2">
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
         <v>2014</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>2015</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>2016</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>2017</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="6">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="6">
         <v>200000</v>
       </c>
-      <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="6">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="6">
         <v>20</v>
       </c>
-      <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="6">
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
         <v>500000</v>
       </c>
-      <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="6">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="6">
         <v>20</v>
       </c>
-      <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2" t="str">
+        <f>'Program targeting'!$A$5</f>
+        <v>Harm reduction 2</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>18</v>
@@ -1115,107 +1167,126 @@
       <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2">
+      <c r="D15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
         <v>2014</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G15" s="2">
         <v>2015</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>2016</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <v>2017</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J15" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="6">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="6">
         <v>300000</v>
       </c>
-      <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="6">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="6"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="6">
+        <v>25</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6">
         <v>500000</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="2" t="s">
-        <v>15</v>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="2" t="str">
+        <f>'Program targeting'!$A$6</f>
+        <v>Treatment 1</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>18</v>
@@ -1223,107 +1294,126 @@
       <c r="C22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2">
+      <c r="D22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2">
         <v>2014</v>
       </c>
-      <c r="F22" s="2">
+      <c r="G22" s="2">
         <v>2015</v>
       </c>
-      <c r="G22" s="2">
+      <c r="H22" s="2">
         <v>2016</v>
       </c>
-      <c r="H22" s="2">
+      <c r="I22" s="2">
         <v>2017</v>
       </c>
-      <c r="I22" s="2">
+      <c r="J22" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:10">
       <c r="A23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="6">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="6">
         <v>3500000</v>
       </c>
-      <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="6">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="6">
         <v>120</v>
       </c>
-      <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="6">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="6">
         <v>10000000</v>
       </c>
-      <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="2" t="s">
-        <v>17</v>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="2" t="str">
+        <f>'Program targeting'!$A$7</f>
+        <v>Treatment 2</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>18</v>
@@ -1331,311 +1421,361 @@
       <c r="C29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2">
+      <c r="D29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2">
         <v>2014</v>
       </c>
-      <c r="F29" s="2">
+      <c r="G29" s="2">
         <v>2015</v>
       </c>
-      <c r="G29" s="2">
+      <c r="H29" s="2">
         <v>2016</v>
       </c>
-      <c r="H29" s="2">
+      <c r="I29" s="2">
         <v>2017</v>
       </c>
-      <c r="I29" s="2">
+      <c r="J29" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:10">
       <c r="A30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="6">
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="6">
         <v>1500000</v>
       </c>
-      <c r="F30" s="6"/>
       <c r="G30" s="6"/>
-      <c r="H30" s="6">
+      <c r="H30" s="6"/>
+      <c r="I30" s="6">
         <v>2500000</v>
       </c>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="6">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="6">
         <v>100</v>
       </c>
-      <c r="F31" s="6"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="6">
+      <c r="H31" s="6"/>
+      <c r="I31" s="6">
         <v>80</v>
       </c>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="6">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="6">
         <v>5000000</v>
       </c>
-      <c r="F32" s="6"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="6">
+      <c r="H32" s="6"/>
+      <c r="I32" s="6">
         <v>8000000</v>
       </c>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
       <c r="C34" s="5"/>
-      <c r="D34" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C10">
     <cfRule type="expression" dxfId="1" priority="13">
-      <formula>COUNTIF(E10:I10,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F10:J10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="14">
-      <formula>AND(COUNTIF(E10:I10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
+      <formula>AND(COUNTIF(F10:J10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
     <cfRule type="expression" dxfId="1" priority="15">
-      <formula>COUNTIF(E11:I11,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F11:J11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="16">
-      <formula>AND(COUNTIF(E11:I11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
+      <formula>AND(COUNTIF(F11:J11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
     <cfRule type="expression" dxfId="1" priority="17">
-      <formula>COUNTIF(E12:I12,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F12:J12,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="18">
-      <formula>AND(COUNTIF(E12:I12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C12)))</formula>
+      <formula>AND(COUNTIF(F12:J12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
     <cfRule type="expression" dxfId="1" priority="19">
-      <formula>COUNTIF(E13:I13,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F13:J13,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="20">
-      <formula>AND(COUNTIF(E13:I13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C13)))</formula>
+      <formula>AND(COUNTIF(F13:J13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
     <cfRule type="expression" dxfId="1" priority="21">
-      <formula>COUNTIF(E16:I16,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F16:J16,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="22">
-      <formula>AND(COUNTIF(E16:I16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C16)))</formula>
+      <formula>AND(COUNTIF(F16:J16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
     <cfRule type="expression" dxfId="1" priority="23">
-      <formula>COUNTIF(E17:I17,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F17:J17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="24">
-      <formula>AND(COUNTIF(E17:I17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
+      <formula>AND(COUNTIF(F17:J17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
     <cfRule type="expression" dxfId="1" priority="25">
-      <formula>COUNTIF(E18:I18,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F18:J18,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="26">
-      <formula>AND(COUNTIF(E18:I18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
+      <formula>AND(COUNTIF(F18:J18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
     <cfRule type="expression" dxfId="1" priority="27">
-      <formula>COUNTIF(E19:I19,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F19:J19,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="28">
-      <formula>AND(COUNTIF(E19:I19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C19)))</formula>
+      <formula>AND(COUNTIF(F19:J19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>COUNTIF(E2:I2,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F2:J2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="2">
-      <formula>AND(COUNTIF(E2:I2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
+      <formula>AND(COUNTIF(F2:J2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
     <cfRule type="expression" dxfId="1" priority="29">
-      <formula>COUNTIF(E20:I20,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F20:J20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="30">
-      <formula>AND(COUNTIF(E20:I20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C20)))</formula>
+      <formula>AND(COUNTIF(F20:J20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
     <cfRule type="expression" dxfId="1" priority="31">
-      <formula>COUNTIF(E23:I23,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F23:J23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="32">
-      <formula>AND(COUNTIF(E23:I23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
+      <formula>AND(COUNTIF(F23:J23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
     <cfRule type="expression" dxfId="1" priority="33">
-      <formula>COUNTIF(E24:I24,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F24:J24,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="34">
-      <formula>AND(COUNTIF(E24:I24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C24)))</formula>
+      <formula>AND(COUNTIF(F24:J24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
     <cfRule type="expression" dxfId="1" priority="35">
-      <formula>COUNTIF(E25:I25,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F25:J25,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="36">
-      <formula>AND(COUNTIF(E25:I25,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C25)))</formula>
+      <formula>AND(COUNTIF(F25:J25,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
     <cfRule type="expression" dxfId="1" priority="37">
-      <formula>COUNTIF(E26:I26,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F26:J26,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="38">
-      <formula>AND(COUNTIF(E26:I26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
+      <formula>AND(COUNTIF(F26:J26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
     <cfRule type="expression" dxfId="1" priority="39">
-      <formula>COUNTIF(E27:I27,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F27:J27,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="40">
-      <formula>AND(COUNTIF(E27:I27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C27)))</formula>
+      <formula>AND(COUNTIF(F27:J27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>COUNTIF(E3:I3,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F3:J3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="4">
-      <formula>AND(COUNTIF(E3:I3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
+      <formula>AND(COUNTIF(F3:J3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
     <cfRule type="expression" dxfId="1" priority="41">
-      <formula>COUNTIF(E30:I30,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F30:J30,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="42">
-      <formula>AND(COUNTIF(E30:I30,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C30)))</formula>
+      <formula>AND(COUNTIF(F30:J30,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
     <cfRule type="expression" dxfId="1" priority="43">
-      <formula>COUNTIF(E31:I31,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F31:J31,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="44">
-      <formula>AND(COUNTIF(E31:I31,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C31)))</formula>
+      <formula>AND(COUNTIF(F31:J31,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
     <cfRule type="expression" dxfId="1" priority="45">
-      <formula>COUNTIF(E32:I32,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F32:J32,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="46">
-      <formula>AND(COUNTIF(E32:I32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C32)))</formula>
+      <formula>AND(COUNTIF(F32:J32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
     <cfRule type="expression" dxfId="1" priority="47">
-      <formula>COUNTIF(E33:I33,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F33:J33,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="48">
-      <formula>AND(COUNTIF(E33:I33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C33)))</formula>
+      <formula>AND(COUNTIF(F33:J33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
     <cfRule type="expression" dxfId="1" priority="49">
-      <formula>COUNTIF(E34:I34,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F34:J34,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="50">
-      <formula>AND(COUNTIF(E34:I34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C34)))</formula>
+      <formula>AND(COUNTIF(F34:J34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
     <cfRule type="expression" dxfId="1" priority="5">
-      <formula>COUNTIF(E4:I4,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F4:J4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="6">
-      <formula>AND(COUNTIF(E4:I4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
+      <formula>AND(COUNTIF(F4:J4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>COUNTIF(E5:I5,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F5:J5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="8">
-      <formula>AND(COUNTIF(E5:I5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
+      <formula>AND(COUNTIF(F5:J5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
     <cfRule type="expression" dxfId="1" priority="9">
-      <formula>COUNTIF(E6:I6,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F6:J6,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="10">
-      <formula>AND(COUNTIF(E6:I6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C6)))</formula>
+      <formula>AND(COUNTIF(F6:J6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
     <cfRule type="expression" dxfId="1" priority="11">
-      <formula>COUNTIF(E9:I9,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(F9:J9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="12">
-      <formula>AND(COUNTIF(E9:I9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
+      <formula>AND(COUNTIF(F9:J9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+      <formula1>"$/person,$/person/year"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+      <formula1>"people/year,people"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
+      <formula1>"$/person,$/person/year"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
+      <formula1>"people/year,people"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+      <formula1>"$/person,$/person/year"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
+      <formula1>"people/year,people"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+      <formula1>"$/person,$/person/year"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+      <formula1>"people/year,people"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+      <formula1>"$/person,$/person/year"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
+      <formula1>"people/year,people"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1662,19 +1802,19 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
@@ -1706,11 +1846,9 @@
         <v>0.01</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>31</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="6">
@@ -1724,19 +1862,19 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
@@ -1768,11 +1906,9 @@
         <v>110</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>31</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="G5" s="6">
         <v>15</v>
@@ -1786,19 +1922,19 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G7" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
@@ -1830,11 +1966,9 @@
         <v>8</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>31</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -1848,19 +1982,19 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G10" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
@@ -1892,11 +2026,9 @@
         <v>0.02</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>31</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -1910,19 +2042,19 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
@@ -1951,7 +2083,9 @@
         <v>Adults</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="G14" s="5"/>
@@ -1961,19 +2095,59 @@
       <c r="K14" s="5"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="1" priority="47">
+      <formula>COUNTIF(F11:K11,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="48">
+      <formula>AND(COUNTIF(F11:K11,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="1" priority="59">
+      <formula>COUNTIF(F14:K14,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="60">
+      <formula>AND(COUNTIF(F14:K14,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" dxfId="1" priority="11">
+      <formula>COUNTIF(F2:K2,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="12">
+      <formula>AND(COUNTIF(F2:K2,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="1" priority="23">
+      <formula>COUNTIF(F5:K5,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="24">
+      <formula>AND(COUNTIF(F5:K5,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="1" priority="35">
+      <formula>COUNTIF(F8:K8,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="36">
+      <formula>AND(COUNTIF(F8:K8,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="2" priority="31">
+    <cfRule type="expression" dxfId="2" priority="37">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="32">
+    <cfRule type="expression" dxfId="3" priority="38">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="2" priority="41">
+    <cfRule type="expression" dxfId="2" priority="49">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="42">
+    <cfRule type="expression" dxfId="3" priority="50">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1986,34 +2160,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="2" priority="11">
+    <cfRule type="expression" dxfId="2" priority="13">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="12">
+    <cfRule type="expression" dxfId="3" priority="14">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="2" priority="21">
+    <cfRule type="expression" dxfId="2" priority="25">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="22">
+    <cfRule type="expression" dxfId="3" priority="26">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="2" priority="33">
+    <cfRule type="expression" dxfId="2" priority="39">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="34">
+    <cfRule type="expression" dxfId="3" priority="40">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="2" priority="43">
+    <cfRule type="expression" dxfId="2" priority="51">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="44">
+    <cfRule type="expression" dxfId="3" priority="52">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2026,34 +2200,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="2" priority="13">
+    <cfRule type="expression" dxfId="2" priority="15">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="14">
+    <cfRule type="expression" dxfId="3" priority="16">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="2" priority="23">
+    <cfRule type="expression" dxfId="2" priority="27">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="24">
+    <cfRule type="expression" dxfId="3" priority="28">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="2" priority="35">
+    <cfRule type="expression" dxfId="2" priority="41">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="36">
+    <cfRule type="expression" dxfId="3" priority="42">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="2" priority="45">
+    <cfRule type="expression" dxfId="2" priority="53">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="46">
+    <cfRule type="expression" dxfId="3" priority="54">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2066,34 +2240,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="2" priority="15">
+    <cfRule type="expression" dxfId="2" priority="17">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="16">
+    <cfRule type="expression" dxfId="3" priority="18">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="2" priority="25">
+    <cfRule type="expression" dxfId="2" priority="29">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="26">
+    <cfRule type="expression" dxfId="3" priority="30">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="2" priority="37">
+    <cfRule type="expression" dxfId="2" priority="43">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="38">
+    <cfRule type="expression" dxfId="3" priority="44">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="expression" dxfId="2" priority="47">
+    <cfRule type="expression" dxfId="2" priority="55">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="48">
+    <cfRule type="expression" dxfId="3" priority="56">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2106,34 +2280,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="2" priority="17">
+    <cfRule type="expression" dxfId="2" priority="19">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="18">
+    <cfRule type="expression" dxfId="3" priority="20">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="2" priority="27">
+    <cfRule type="expression" dxfId="2" priority="31">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="28">
+    <cfRule type="expression" dxfId="3" priority="32">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="2" priority="39">
+    <cfRule type="expression" dxfId="2" priority="45">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="40">
+    <cfRule type="expression" dxfId="3" priority="46">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="expression" dxfId="2" priority="49">
+    <cfRule type="expression" dxfId="2" priority="57">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="50">
+    <cfRule type="expression" dxfId="3" priority="58">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2146,18 +2320,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="2" priority="19">
+    <cfRule type="expression" dxfId="2" priority="21">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="20">
+    <cfRule type="expression" dxfId="3" priority="22">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="2" priority="29">
+    <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="30">
+    <cfRule type="expression" dxfId="3" priority="34">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tests/databooks/progbook_sir.xlsx
+++ b/tests/databooks/progbook_sir.xlsx
@@ -1746,31 +1746,31 @@
   </conditionalFormatting>
   <dataValidations count="10">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
       <formula1>"people/year,people"</formula1>
